--- a/Bank&CC.xlsx
+++ b/Bank&CC.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Bank_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Institution" sheetId="2" r:id="rId1"/>
     <sheet name="Ac_Type" sheetId="3" r:id="rId2"/>
-    <sheet name="Institution" sheetId="2" r:id="rId3"/>
+    <sheet name="Bank_Data" sheetId="1" r:id="rId3"/>
     <sheet name="CC_Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
-  <si>
-    <t>Bank</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>Branch_Address</t>
   </si>
@@ -270,6 +267,69 @@
   </si>
   <si>
     <t>Car</t>
+  </si>
+  <si>
+    <t>CC_Limit</t>
+  </si>
+  <si>
+    <t>CC_Valid_From</t>
+  </si>
+  <si>
+    <t>CC_Valid_To</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Txn_PIN</t>
+  </si>
+  <si>
+    <t>Tele_Pin</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Statement_Date</t>
+  </si>
+  <si>
+    <t>Payment_DueBy</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>QA_1</t>
+  </si>
+  <si>
+    <t>QA_2</t>
+  </si>
+  <si>
+    <t>QA_3</t>
+  </si>
+  <si>
+    <t>QA_4</t>
+  </si>
+  <si>
+    <t>QA_5</t>
+  </si>
+  <si>
+    <t>Helpline</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Account#</t>
+  </si>
+  <si>
+    <t>Ac_Holder</t>
+  </si>
+  <si>
+    <t>Card_No</t>
   </si>
 </sst>
 </file>
@@ -596,194 +656,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="32.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -800,97 +829,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -900,177 +929,327 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
+      <c r="A1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A23">
-    <sortCondition ref="A2:A23"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bank&CC.xlsx
+++ b/Bank&CC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Institution" sheetId="2" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>EQ</t>
   </si>
   <si>
-    <t>Neo_Financial</t>
-  </si>
-  <si>
     <t>MBNA</t>
   </si>
   <si>
@@ -155,12 +152,6 @@
     <t>Institution</t>
   </si>
   <si>
-    <t>Home_Depot</t>
-  </si>
-  <si>
-    <t>Capital_One</t>
-  </si>
-  <si>
     <t>AMEX</t>
   </si>
   <si>
@@ -176,12 +167,6 @@
     <t>IDFC</t>
   </si>
   <si>
-    <t>PC_Financial</t>
-  </si>
-  <si>
-    <t>Simplii_Financial</t>
-  </si>
-  <si>
     <t>IndusInd</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>Float</t>
   </si>
   <si>
-    <t>Home_Trust</t>
-  </si>
-  <si>
     <t>Ac_Tag</t>
   </si>
   <si>
@@ -330,6 +312,24 @@
   </si>
   <si>
     <t>Card_No</t>
+  </si>
+  <si>
+    <t>NeoFinancial</t>
+  </si>
+  <si>
+    <t>PC-Financial</t>
+  </si>
+  <si>
+    <t>Simplii-Financial</t>
+  </si>
+  <si>
+    <t>Home-Depot</t>
+  </si>
+  <si>
+    <t>Home-Trust</t>
+  </si>
+  <si>
+    <t>Capital-One</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,27 +671,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -711,52 +711,52 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -771,7 +771,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
@@ -781,32 +781,32 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,92 +834,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -943,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,117 +1136,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
